--- a/GLM/glm summary 03-04-2015.xlsx
+++ b/GLM/glm summary 03-04-2015.xlsx
@@ -4,25 +4,26 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="23820" windowHeight="10110" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="23820" windowHeight="10110" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="variables" sheetId="2" r:id="rId1"/>
     <sheet name="variables (2)" sheetId="6" r:id="rId2"/>
-    <sheet name="variables (3)" sheetId="7" r:id="rId3"/>
-    <sheet name="model.avg" sheetId="1" r:id="rId4"/>
-    <sheet name="table for comparison" sheetId="3" r:id="rId5"/>
-    <sheet name="summ_responses" sheetId="4" r:id="rId6"/>
-    <sheet name="confusion_matrix" sheetId="8" r:id="rId7"/>
-    <sheet name="confusion_matrix_2" sheetId="10" r:id="rId8"/>
-    <sheet name="model_averaging" sheetId="9" r:id="rId9"/>
+    <sheet name="variables (4)" sheetId="11" r:id="rId3"/>
+    <sheet name="variables (3)" sheetId="7" r:id="rId4"/>
+    <sheet name="model.avg" sheetId="1" r:id="rId5"/>
+    <sheet name="table for comparison" sheetId="3" r:id="rId6"/>
+    <sheet name="summ_responses" sheetId="4" r:id="rId7"/>
+    <sheet name="confusion_matrix" sheetId="8" r:id="rId8"/>
+    <sheet name="confusion_matrix_2" sheetId="10" r:id="rId9"/>
+    <sheet name="model_averaging" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="224">
   <si>
     <t>Estimate</t>
   </si>
@@ -966,6 +967,161 @@
   </si>
   <si>
     <t>SD</t>
+  </si>
+  <si>
+    <r>
+      <t>mg L</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>µS cm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+  </si>
+  <si>
+    <t>lakes1km</t>
+  </si>
+  <si>
+    <t>lakes10km</t>
+  </si>
+  <si>
+    <t>distLM</t>
+  </si>
+  <si>
+    <t>distSP</t>
+  </si>
+  <si>
+    <t>distW</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Distance to nearest water body with </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Wolffia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>sp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Abbreviations: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Connecticut Agricultural Experiment Station (CAES), US Geological Survey National Hydrography Dataset (USGS NHD), Connecticut Department of Energy and Environmental Protection (CT DEEP), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Lemna minor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(LM), </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Spirodela polyrhiza </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(SP), and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Wolffia </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">sp. (W)  </t>
+    </r>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Local - abiotic</t>
+  </si>
+  <si>
+    <t>Local - biotic</t>
+  </si>
+  <si>
+    <t>Regional - dispersal</t>
+  </si>
+  <si>
+    <t>Regional - other</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1747,7 @@
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1746,11 +1902,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2628,6 +2790,1860 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I157"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="88.42578125" style="65" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="62">
+        <v>6</v>
+      </c>
+      <c r="C3" s="69">
+        <v>-82.597131869999998</v>
+      </c>
+      <c r="D3" s="69">
+        <v>177.69130519999999</v>
+      </c>
+      <c r="E3" s="69">
+        <v>0</v>
+      </c>
+      <c r="F3" s="69">
+        <v>4.7661889999999997E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" s="62">
+        <v>7</v>
+      </c>
+      <c r="C4" s="69">
+        <v>-81.856145339999998</v>
+      </c>
+      <c r="D4" s="69">
+        <v>178.3789573</v>
+      </c>
+      <c r="E4" s="69">
+        <v>0.687652182</v>
+      </c>
+      <c r="F4" s="69">
+        <v>3.3794770000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="62">
+        <v>7</v>
+      </c>
+      <c r="C5" s="69">
+        <v>-81.998308960000003</v>
+      </c>
+      <c r="D5" s="69">
+        <v>178.6632846</v>
+      </c>
+      <c r="E5" s="69">
+        <v>0.97197942699999995</v>
+      </c>
+      <c r="F5" s="69">
+        <v>2.9316260000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="62">
+        <v>6</v>
+      </c>
+      <c r="C6" s="69">
+        <v>-83.127967459999994</v>
+      </c>
+      <c r="D6" s="69">
+        <v>178.7529763</v>
+      </c>
+      <c r="E6" s="69">
+        <v>1.06167118</v>
+      </c>
+      <c r="F6" s="69">
+        <v>2.8030590000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="62">
+        <v>7</v>
+      </c>
+      <c r="C7" s="69">
+        <v>-82.043598540000005</v>
+      </c>
+      <c r="D7" s="69">
+        <v>178.7538638</v>
+      </c>
+      <c r="E7" s="69">
+        <v>1.0625585900000001</v>
+      </c>
+      <c r="F7" s="69">
+        <v>2.8018159999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="65" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="62">
+        <v>6</v>
+      </c>
+      <c r="C8" s="69">
+        <v>-83.169346759999996</v>
+      </c>
+      <c r="D8" s="69">
+        <v>178.83573490000001</v>
+      </c>
+      <c r="E8" s="69">
+        <v>1.1444297830000001</v>
+      </c>
+      <c r="F8" s="69">
+        <v>2.6894380000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="62">
+        <v>7</v>
+      </c>
+      <c r="C9" s="69">
+        <v>-82.200212390000004</v>
+      </c>
+      <c r="D9" s="69">
+        <v>179.06709140000001</v>
+      </c>
+      <c r="E9" s="69">
+        <v>1.375786274</v>
+      </c>
+      <c r="F9" s="69">
+        <v>2.3956479999999998E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" s="62">
+        <v>8</v>
+      </c>
+      <c r="C10" s="69">
+        <v>-81.117420989999999</v>
+      </c>
+      <c r="D10" s="69">
+        <v>179.0971174</v>
+      </c>
+      <c r="E10" s="69">
+        <v>1.4058122719999999</v>
+      </c>
+      <c r="F10" s="69">
+        <v>2.3599509999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B11" s="62">
+        <v>6</v>
+      </c>
+      <c r="C11" s="69">
+        <v>-83.301189399999998</v>
+      </c>
+      <c r="D11" s="69">
+        <v>179.0994202</v>
+      </c>
+      <c r="E11" s="69">
+        <v>1.4081150529999999</v>
+      </c>
+      <c r="F11" s="69">
+        <v>2.3572350000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="65" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" s="62">
+        <v>7</v>
+      </c>
+      <c r="C12" s="69">
+        <v>-82.232664400000004</v>
+      </c>
+      <c r="D12" s="69">
+        <v>179.13199549999999</v>
+      </c>
+      <c r="E12" s="69">
+        <v>1.4406902930000001</v>
+      </c>
+      <c r="F12" s="69">
+        <v>2.319153E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="62">
+        <v>7</v>
+      </c>
+      <c r="C13" s="69">
+        <v>-82.251071330000002</v>
+      </c>
+      <c r="D13" s="69">
+        <v>179.16880929999999</v>
+      </c>
+      <c r="E13" s="69">
+        <v>1.4775041609999999</v>
+      </c>
+      <c r="F13" s="69">
+        <v>2.276854E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="62">
+        <v>7</v>
+      </c>
+      <c r="C14" s="69">
+        <v>-82.286499750000004</v>
+      </c>
+      <c r="D14" s="69">
+        <v>179.23966619999999</v>
+      </c>
+      <c r="E14" s="69">
+        <v>1.548361009</v>
+      </c>
+      <c r="F14" s="69">
+        <v>2.197601E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="65" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="62">
+        <v>7</v>
+      </c>
+      <c r="C15" s="69">
+        <v>-82.316323229999995</v>
+      </c>
+      <c r="D15" s="69">
+        <v>179.29931310000001</v>
+      </c>
+      <c r="E15" s="69">
+        <v>1.60800795</v>
+      </c>
+      <c r="F15" s="69">
+        <v>2.1330289999999998E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="62">
+        <v>7</v>
+      </c>
+      <c r="C16" s="69">
+        <v>-82.350724940000006</v>
+      </c>
+      <c r="D16" s="69">
+        <v>179.36811650000001</v>
+      </c>
+      <c r="E16" s="69">
+        <v>1.6768113819999999</v>
+      </c>
+      <c r="F16" s="69">
+        <v>2.0608969999999999E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B17" s="62">
+        <v>7</v>
+      </c>
+      <c r="C17" s="69">
+        <v>-82.352463729999997</v>
+      </c>
+      <c r="D17" s="69">
+        <v>179.37159410000001</v>
+      </c>
+      <c r="E17" s="69">
+        <v>1.680288958</v>
+      </c>
+      <c r="F17" s="69">
+        <v>2.0573169999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="62">
+        <v>7</v>
+      </c>
+      <c r="C18" s="69">
+        <v>-82.368749339999994</v>
+      </c>
+      <c r="D18" s="69">
+        <v>179.40416529999999</v>
+      </c>
+      <c r="E18" s="69">
+        <v>1.712860182</v>
+      </c>
+      <c r="F18" s="69">
+        <v>2.0240829999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="62">
+        <v>8</v>
+      </c>
+      <c r="C19" s="69">
+        <v>-81.313175680000001</v>
+      </c>
+      <c r="D19" s="69">
+        <v>179.48862679999999</v>
+      </c>
+      <c r="E19" s="69">
+        <v>1.7973216460000001</v>
+      </c>
+      <c r="F19" s="69">
+        <v>1.9403840000000001E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B20" s="62">
+        <v>8</v>
+      </c>
+      <c r="C20" s="69">
+        <v>-81.390731869999996</v>
+      </c>
+      <c r="D20" s="69">
+        <v>179.6437392</v>
+      </c>
+      <c r="E20" s="69">
+        <v>1.9524340149999999</v>
+      </c>
+      <c r="F20" s="69">
+        <v>1.7955829999999999E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="62">
+        <v>7</v>
+      </c>
+      <c r="C21" s="69">
+        <v>-82.495072640000004</v>
+      </c>
+      <c r="D21" s="69">
+        <v>179.65681190000001</v>
+      </c>
+      <c r="E21" s="69">
+        <v>1.965506776</v>
+      </c>
+      <c r="F21" s="69">
+        <v>1.783885E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B22" s="62">
+        <v>7</v>
+      </c>
+      <c r="C22" s="69">
+        <v>-82.4993956</v>
+      </c>
+      <c r="D22" s="69">
+        <v>179.66545790000001</v>
+      </c>
+      <c r="E22" s="69">
+        <v>1.974152693</v>
+      </c>
+      <c r="F22" s="69">
+        <v>1.77619E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="F23" s="66"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+    </row>
+    <row r="25" spans="1:6" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F25" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B26" s="65">
+        <v>3</v>
+      </c>
+      <c r="C26" s="65">
+        <v>-75.372176580000001</v>
+      </c>
+      <c r="D26" s="65">
+        <v>156.88388810000001</v>
+      </c>
+      <c r="E26" s="65">
+        <v>0</v>
+      </c>
+      <c r="F26" s="65">
+        <v>2.1921950000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" s="65">
+        <v>2</v>
+      </c>
+      <c r="C27" s="65">
+        <v>-76.41803032</v>
+      </c>
+      <c r="D27" s="65">
+        <v>156.90542479999999</v>
+      </c>
+      <c r="E27" s="65">
+        <v>2.1536749000000001E-2</v>
+      </c>
+      <c r="F27" s="65">
+        <v>2.1687149999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="65">
+        <v>4</v>
+      </c>
+      <c r="C28" s="65">
+        <v>-74.551180729999999</v>
+      </c>
+      <c r="D28" s="65">
+        <v>157.33627960000001</v>
+      </c>
+      <c r="E28" s="65">
+        <v>0.45239153799999998</v>
+      </c>
+      <c r="F28" s="65">
+        <v>1.7484110000000001E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="65" t="s">
+        <v>170</v>
+      </c>
+      <c r="B29" s="65">
+        <v>4</v>
+      </c>
+      <c r="C29" s="65">
+        <v>-74.56423581</v>
+      </c>
+      <c r="D29" s="65">
+        <v>157.36238969999999</v>
+      </c>
+      <c r="E29" s="65">
+        <v>0.47850169399999998</v>
+      </c>
+      <c r="F29" s="65">
+        <v>1.725734E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="65">
+        <v>4</v>
+      </c>
+      <c r="C30" s="65">
+        <v>-74.60956985</v>
+      </c>
+      <c r="D30" s="65">
+        <v>157.45305780000001</v>
+      </c>
+      <c r="E30" s="65">
+        <v>0.56916977499999999</v>
+      </c>
+      <c r="F30" s="65">
+        <v>1.649246E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" s="65">
+        <v>4</v>
+      </c>
+      <c r="C31" s="65">
+        <v>-74.631530049999995</v>
+      </c>
+      <c r="D31" s="65">
+        <v>157.4969782</v>
+      </c>
+      <c r="E31" s="65">
+        <v>0.61309017499999996</v>
+      </c>
+      <c r="F31" s="65">
+        <v>1.6134229999999999E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="65">
+        <v>3</v>
+      </c>
+      <c r="C32" s="65">
+        <v>-75.752877819999995</v>
+      </c>
+      <c r="D32" s="65">
+        <v>157.64529049999999</v>
+      </c>
+      <c r="E32" s="65">
+        <v>0.76140246300000003</v>
+      </c>
+      <c r="F32" s="65">
+        <v>1.498107E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="65">
+        <v>3</v>
+      </c>
+      <c r="C33" s="65">
+        <v>-75.835690209999996</v>
+      </c>
+      <c r="D33" s="65">
+        <v>157.8109153</v>
+      </c>
+      <c r="E33" s="65">
+        <v>0.92702725699999999</v>
+      </c>
+      <c r="F33" s="65">
+        <v>1.3790429999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="65">
+        <v>3</v>
+      </c>
+      <c r="C34" s="65">
+        <v>-75.926378889999995</v>
+      </c>
+      <c r="D34" s="65">
+        <v>157.99229270000001</v>
+      </c>
+      <c r="E34" s="65">
+        <v>1.1084046190000001</v>
+      </c>
+      <c r="F34" s="65">
+        <v>1.259483E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="65" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" s="65">
+        <v>5</v>
+      </c>
+      <c r="C35" s="65">
+        <v>-73.906418740000007</v>
+      </c>
+      <c r="D35" s="65">
+        <v>158.1657787</v>
+      </c>
+      <c r="E35" s="65">
+        <v>1.2818906139999999</v>
+      </c>
+      <c r="F35" s="65">
+        <v>1.154836E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="B36" s="65">
+        <v>5</v>
+      </c>
+      <c r="C36" s="65">
+        <v>-73.908162869999998</v>
+      </c>
+      <c r="D36" s="65">
+        <v>158.1692669</v>
+      </c>
+      <c r="E36" s="65">
+        <v>1.2853788639999999</v>
+      </c>
+      <c r="F36" s="65">
+        <v>1.1528230000000001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="65">
+        <v>4</v>
+      </c>
+      <c r="C37" s="65">
+        <v>-75.009660060000002</v>
+      </c>
+      <c r="D37" s="65">
+        <v>158.25323829999999</v>
+      </c>
+      <c r="E37" s="65">
+        <v>1.369350201</v>
+      </c>
+      <c r="F37" s="65">
+        <v>1.1054229999999999E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="65" t="s">
+        <v>174</v>
+      </c>
+      <c r="B38" s="65">
+        <v>3</v>
+      </c>
+      <c r="C38" s="65">
+        <v>-76.164375449999994</v>
+      </c>
+      <c r="D38" s="65">
+        <v>158.46828579999999</v>
+      </c>
+      <c r="E38" s="65">
+        <v>1.584397724</v>
+      </c>
+      <c r="F38" s="65">
+        <v>9.9273099999999995E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="65" t="s">
+        <v>175</v>
+      </c>
+      <c r="B39" s="65">
+        <v>4</v>
+      </c>
+      <c r="C39" s="65">
+        <v>-75.131083619999998</v>
+      </c>
+      <c r="D39" s="65">
+        <v>158.4960854</v>
+      </c>
+      <c r="E39" s="65">
+        <v>1.6121973089999999</v>
+      </c>
+      <c r="F39" s="65">
+        <v>9.7902800000000006E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="65">
+        <v>5</v>
+      </c>
+      <c r="C40" s="65">
+        <v>-74.077362550000004</v>
+      </c>
+      <c r="D40" s="65">
+        <v>158.50766630000001</v>
+      </c>
+      <c r="E40" s="65">
+        <v>1.6237782190000001</v>
+      </c>
+      <c r="F40" s="65">
+        <v>9.7337499999999996E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" s="65">
+        <v>5</v>
+      </c>
+      <c r="C41" s="65">
+        <v>-74.081816790000005</v>
+      </c>
+      <c r="D41" s="65">
+        <v>158.5165748</v>
+      </c>
+      <c r="E41" s="65">
+        <v>1.632686707</v>
+      </c>
+      <c r="F41" s="65">
+        <v>9.6904900000000004E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="65" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" s="65">
+        <v>5</v>
+      </c>
+      <c r="C42" s="65">
+        <v>-74.127009659999999</v>
+      </c>
+      <c r="D42" s="65">
+        <v>158.60696050000001</v>
+      </c>
+      <c r="E42" s="65">
+        <v>1.723072438</v>
+      </c>
+      <c r="F42" s="65">
+        <v>9.2623E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="65">
+        <v>5</v>
+      </c>
+      <c r="C43" s="65">
+        <v>-74.180559380000005</v>
+      </c>
+      <c r="D43" s="65">
+        <v>158.7140599</v>
+      </c>
+      <c r="E43" s="65">
+        <v>1.830171894</v>
+      </c>
+      <c r="F43" s="65">
+        <v>8.7793500000000004E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="65" t="s">
+        <v>194</v>
+      </c>
+      <c r="B44" s="65">
+        <v>5</v>
+      </c>
+      <c r="C44" s="65">
+        <v>-74.180605790000001</v>
+      </c>
+      <c r="D44" s="65">
+        <v>158.71415279999999</v>
+      </c>
+      <c r="E44" s="65">
+        <v>1.8302647030000001</v>
+      </c>
+      <c r="F44" s="65">
+        <v>8.7789400000000005E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B45" s="65">
+        <v>4</v>
+      </c>
+      <c r="C45" s="65">
+        <v>-75.253866849999994</v>
+      </c>
+      <c r="D45" s="65">
+        <v>158.7416518</v>
+      </c>
+      <c r="E45" s="65">
+        <v>1.857763772</v>
+      </c>
+      <c r="F45" s="65">
+        <v>8.6590600000000005E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="65" t="s">
+        <v>180</v>
+      </c>
+      <c r="B46" s="65">
+        <v>3</v>
+      </c>
+      <c r="C46" s="65">
+        <v>-76.303794510000003</v>
+      </c>
+      <c r="D46" s="65">
+        <v>158.74712389999999</v>
+      </c>
+      <c r="E46" s="65">
+        <v>1.863235854</v>
+      </c>
+      <c r="F46" s="65">
+        <v>8.6353999999999999E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="65">
+        <v>3</v>
+      </c>
+      <c r="C47" s="65">
+        <v>-76.318116180000004</v>
+      </c>
+      <c r="D47" s="65">
+        <v>158.77576719999999</v>
+      </c>
+      <c r="E47" s="65">
+        <v>1.891879187</v>
+      </c>
+      <c r="F47" s="65">
+        <v>8.5126099999999997E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="B48" s="65">
+        <v>4</v>
+      </c>
+      <c r="C48" s="65">
+        <v>-75.275395619999998</v>
+      </c>
+      <c r="D48" s="65">
+        <v>158.7847094</v>
+      </c>
+      <c r="E48" s="65">
+        <v>1.900821321</v>
+      </c>
+      <c r="F48" s="65">
+        <v>8.4746400000000003E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="B49" s="65">
+        <v>4</v>
+      </c>
+      <c r="C49" s="65">
+        <v>-75.276053039999994</v>
+      </c>
+      <c r="D49" s="65">
+        <v>158.78602420000001</v>
+      </c>
+      <c r="E49" s="65">
+        <v>1.902136161</v>
+      </c>
+      <c r="F49" s="65">
+        <v>8.4690700000000004E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="B50" s="65">
+        <v>4</v>
+      </c>
+      <c r="C50" s="65">
+        <v>-75.28310037</v>
+      </c>
+      <c r="D50" s="65">
+        <v>158.8001189</v>
+      </c>
+      <c r="E50" s="65">
+        <v>1.9162308219999999</v>
+      </c>
+      <c r="F50" s="65">
+        <v>8.4095899999999996E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="65">
+        <v>3</v>
+      </c>
+      <c r="C51" s="65">
+        <v>-76.342273410000004</v>
+      </c>
+      <c r="D51" s="65">
+        <v>158.82408169999999</v>
+      </c>
+      <c r="E51" s="65">
+        <v>1.940193649</v>
+      </c>
+      <c r="F51" s="65">
+        <v>8.3094400000000002E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="65">
+        <v>4</v>
+      </c>
+      <c r="C52" s="65">
+        <v>-75.313823619999994</v>
+      </c>
+      <c r="D52" s="65">
+        <v>158.86156539999999</v>
+      </c>
+      <c r="E52" s="65">
+        <v>1.977677326</v>
+      </c>
+      <c r="F52" s="65">
+        <v>8.1551499999999995E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="65" t="s">
+        <v>205</v>
+      </c>
+      <c r="B53" s="65">
+        <v>5</v>
+      </c>
+      <c r="C53" s="65">
+        <v>-74.254377680000005</v>
+      </c>
+      <c r="D53" s="65">
+        <v>158.86169649999999</v>
+      </c>
+      <c r="E53" s="65">
+        <v>1.9778084840000001</v>
+      </c>
+      <c r="F53" s="65">
+        <v>8.1546199999999998E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B54" s="65">
+        <v>4</v>
+      </c>
+      <c r="C54" s="65">
+        <v>-75.315459820000001</v>
+      </c>
+      <c r="D54" s="65">
+        <v>158.8648378</v>
+      </c>
+      <c r="E54" s="65">
+        <v>1.9809497140000001</v>
+      </c>
+      <c r="F54" s="65">
+        <v>8.1418199999999999E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="F55" s="66"/>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+    </row>
+    <row r="57" spans="1:6" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F57" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B69" s="65"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="F86" s="66"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="B87" s="68"/>
+      <c r="C87" s="68"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="68"/>
+      <c r="F87" s="68"/>
+    </row>
+    <row r="88" spans="1:6" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C88" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F88" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="71"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+    </row>
+    <row r="90" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="71"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+    </row>
+    <row r="91" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="71"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+    </row>
+    <row r="92" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="71"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+    </row>
+    <row r="93" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="71"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+    </row>
+    <row r="94" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="71"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+    </row>
+    <row r="95" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="71"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+    </row>
+    <row r="96" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="71"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+    </row>
+    <row r="97" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="71"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+    </row>
+    <row r="98" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="71"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+    </row>
+    <row r="99" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="71"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+    </row>
+    <row r="100" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="71"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+    </row>
+    <row r="101" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="71"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+    </row>
+    <row r="102" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="71"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+    </row>
+    <row r="103" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="71"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+    </row>
+    <row r="104" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="71"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+    </row>
+    <row r="105" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="71"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+    </row>
+    <row r="106" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="71"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+    </row>
+    <row r="107" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="71"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+    </row>
+    <row r="108" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="71"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+    </row>
+    <row r="109" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="71"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+    </row>
+    <row r="110" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="71"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+    </row>
+    <row r="111" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="71"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+    </row>
+    <row r="112" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="71"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+    </row>
+    <row r="113" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="71"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+    </row>
+    <row r="114" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="71"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+    </row>
+    <row r="115" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="71"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+    </row>
+    <row r="116" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="71"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+    </row>
+    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="H119" s="72"/>
+      <c r="I119" s="72"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="B120" s="68"/>
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="68"/>
+    </row>
+    <row r="121" spans="1:9" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C121" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="D121" s="64" t="s">
+        <v>154</v>
+      </c>
+      <c r="E121" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="F121" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+    </row>
+    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B129" s="65"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+    </row>
+    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B130" s="65"/>
+      <c r="C130" s="65"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+    </row>
+    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+    </row>
+    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B132" s="65"/>
+      <c r="C132" s="65"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+    </row>
+    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B133" s="65"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+    </row>
+    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B134" s="65"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+    </row>
+    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B135" s="65"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+    </row>
+    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B136" s="65"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+    </row>
+    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B137" s="65"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+    </row>
+    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B138" s="65"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+    </row>
+    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B139" s="65"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+    </row>
+    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B140" s="65"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+    </row>
+    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B141" s="65"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+    </row>
+    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+    </row>
+    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B143" s="65"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+    </row>
+    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+    </row>
+    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+    </row>
+    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B146" s="65"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="65"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+    </row>
+    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B147" s="65"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+    </row>
+    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="65"/>
+    </row>
+    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B149" s="65"/>
+      <c r="C149" s="65"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+    </row>
+    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B150" s="65"/>
+      <c r="C150" s="65"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+    </row>
+    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B151" s="65"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+    </row>
+    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B152" s="65"/>
+      <c r="C152" s="65"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+    </row>
+    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B153" s="65"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+    </row>
+    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B154" s="65"/>
+      <c r="C154" s="65"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
+    </row>
+    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B155" s="65"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+    </row>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="65"/>
+      <c r="C156" s="65"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="65"/>
+      <c r="C157" s="65"/>
+      <c r="D157" s="65"/>
+      <c r="E157" s="65"/>
+      <c r="F157" s="65"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
@@ -2959,6 +4975,301 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.28515625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B7" s="81" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="81" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B8" s="81" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>210</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="80"/>
+      <c r="D11" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="81" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="81" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="81" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3121,7 +5432,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O96"/>
   <sheetViews>
@@ -4428,7 +6739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -4939,38 +7250,38 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="G29:G30"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -5037,11 +7348,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -5086,28 +7397,28 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="79"/>
       <c r="F6" s="53" t="s">
         <v>152</v>
       </c>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="K6" s="78"/>
+      <c r="K6" s="79"/>
       <c r="M6" s="53" t="s">
         <v>152</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
-      <c r="Q6" s="78" t="s">
+      <c r="Q6" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="R6" s="78"/>
+      <c r="R6" s="79"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B7" s="49"/>
@@ -5143,7 +7454,7 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="78" t="s">
         <v>147</v>
       </c>
       <c r="B8" s="49" t="s">
@@ -5151,7 +7462,7 @@
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="78" t="s">
         <v>147</v>
       </c>
       <c r="I8" s="49" t="s">
@@ -5163,7 +7474,7 @@
       <c r="K8" s="50">
         <v>30</v>
       </c>
-      <c r="O8" s="79" t="s">
+      <c r="O8" s="78" t="s">
         <v>147</v>
       </c>
       <c r="P8" s="49" t="s">
@@ -5179,13 +7490,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
+      <c r="A9" s="78"/>
       <c r="B9" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="50"/>
-      <c r="H9" s="79"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="49" t="s">
         <v>144</v>
       </c>
@@ -5195,7 +7506,7 @@
       <c r="K9" s="50">
         <v>89</v>
       </c>
-      <c r="O9" s="79"/>
+      <c r="O9" s="78"/>
       <c r="P9" s="49" t="s">
         <v>145</v>
       </c>
@@ -5241,28 +7552,28 @@
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="78"/>
+      <c r="D12" s="79"/>
       <c r="F12" s="53" t="s">
         <v>152</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
-      <c r="J12" s="78" t="s">
+      <c r="J12" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="78"/>
+      <c r="K12" s="79"/>
       <c r="M12" s="53" t="s">
         <v>152</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="21"/>
-      <c r="Q12" s="78" t="s">
+      <c r="Q12" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="R12" s="78"/>
+      <c r="R12" s="79"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="21"/>
@@ -5299,7 +7610,7 @@
       </c>
     </row>
     <row r="14" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79" t="s">
+      <c r="A14" s="78" t="s">
         <v>147</v>
       </c>
       <c r="B14" s="49" t="s">
@@ -5307,7 +7618,7 @@
       </c>
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
-      <c r="H14" s="79" t="s">
+      <c r="H14" s="78" t="s">
         <v>147</v>
       </c>
       <c r="I14" s="49" t="s">
@@ -5319,7 +7630,7 @@
       <c r="K14" s="50">
         <v>45</v>
       </c>
-      <c r="O14" s="79" t="s">
+      <c r="O14" s="78" t="s">
         <v>147</v>
       </c>
       <c r="P14" s="49" t="s">
@@ -5335,13 +7646,13 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="79"/>
+      <c r="A15" s="78"/>
       <c r="B15" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C15" s="50"/>
       <c r="D15" s="50"/>
-      <c r="H15" s="79"/>
+      <c r="H15" s="78"/>
       <c r="I15" s="49" t="s">
         <v>144</v>
       </c>
@@ -5351,7 +7662,7 @@
       <c r="K15" s="50">
         <v>99</v>
       </c>
-      <c r="O15" s="79"/>
+      <c r="O15" s="78"/>
       <c r="P15" s="49" t="s">
         <v>145</v>
       </c>
@@ -5397,28 +7708,28 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="79"/>
       <c r="F18" s="53" t="s">
         <v>152</v>
       </c>
       <c r="H18" s="21"/>
       <c r="I18" s="21"/>
-      <c r="J18" s="78" t="s">
+      <c r="J18" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="K18" s="78"/>
+      <c r="K18" s="79"/>
       <c r="M18" s="53" t="s">
         <v>152</v>
       </c>
       <c r="O18" s="21"/>
       <c r="P18" s="21"/>
-      <c r="Q18" s="78" t="s">
+      <c r="Q18" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="R18" s="78"/>
+      <c r="R18" s="79"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="21"/>
@@ -5455,7 +7766,7 @@
       </c>
     </row>
     <row r="20" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="78" t="s">
         <v>147</v>
       </c>
       <c r="B20" s="49" t="s">
@@ -5463,7 +7774,7 @@
       </c>
       <c r="C20" s="50"/>
       <c r="D20" s="50"/>
-      <c r="H20" s="79" t="s">
+      <c r="H20" s="78" t="s">
         <v>147</v>
       </c>
       <c r="I20" s="49" t="s">
@@ -5475,7 +7786,7 @@
       <c r="K20" s="50">
         <v>40</v>
       </c>
-      <c r="O20" s="79" t="s">
+      <c r="O20" s="78" t="s">
         <v>147</v>
       </c>
       <c r="P20" s="49" t="s">
@@ -5491,13 +7802,13 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="79"/>
+      <c r="A21" s="78"/>
       <c r="B21" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
-      <c r="H21" s="79"/>
+      <c r="H21" s="78"/>
       <c r="I21" s="49" t="s">
         <v>144</v>
       </c>
@@ -5507,7 +7818,7 @@
       <c r="K21" s="50">
         <v>112</v>
       </c>
-      <c r="O21" s="79"/>
+      <c r="O21" s="78"/>
       <c r="P21" s="49" t="s">
         <v>145</v>
       </c>
@@ -5553,28 +7864,28 @@
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="78"/>
+      <c r="D24" s="79"/>
       <c r="F24" s="53" t="s">
         <v>152</v>
       </c>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
-      <c r="J24" s="78" t="s">
+      <c r="J24" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="K24" s="78"/>
+      <c r="K24" s="79"/>
       <c r="M24" s="53" t="s">
         <v>152</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="21"/>
-      <c r="Q24" s="78" t="s">
+      <c r="Q24" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="R24" s="78"/>
+      <c r="R24" s="79"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="21"/>
@@ -5611,7 +7922,7 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="79" t="s">
+      <c r="A26" s="78" t="s">
         <v>147</v>
       </c>
       <c r="B26" s="49" t="s">
@@ -5619,7 +7930,7 @@
       </c>
       <c r="C26" s="50"/>
       <c r="D26" s="50"/>
-      <c r="H26" s="79" t="s">
+      <c r="H26" s="78" t="s">
         <v>147</v>
       </c>
       <c r="I26" s="49" t="s">
@@ -5631,7 +7942,7 @@
       <c r="K26" s="50">
         <v>29</v>
       </c>
-      <c r="O26" s="79" t="s">
+      <c r="O26" s="78" t="s">
         <v>147</v>
       </c>
       <c r="P26" s="49" t="s">
@@ -5647,13 +7958,13 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
+      <c r="A27" s="78"/>
       <c r="B27" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C27" s="50"/>
       <c r="D27" s="50"/>
-      <c r="H27" s="79"/>
+      <c r="H27" s="78"/>
       <c r="I27" s="49" t="s">
         <v>144</v>
       </c>
@@ -5663,7 +7974,7 @@
       <c r="K27" s="50">
         <v>75</v>
       </c>
-      <c r="O27" s="79"/>
+      <c r="O27" s="78"/>
       <c r="P27" s="49" t="s">
         <v>145</v>
       </c>
@@ -5678,6 +7989,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="J18:K18"/>
     <mergeCell ref="O20:O21"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="O26:O27"/>
@@ -5686,33 +8013,17 @@
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="O14:O15"/>
     <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
@@ -5736,10 +8047,10 @@
       <c r="D1" s="61"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="78"/>
+      <c r="D2" s="79"/>
       <c r="F2" s="56" t="s">
         <v>208</v>
       </c>
@@ -5798,10 +8109,10 @@
       <c r="F7" s="55"/>
     </row>
     <row r="8" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D8" s="78"/>
+      <c r="D8" s="79"/>
       <c r="F8" s="56" t="s">
         <v>208</v>
       </c>
@@ -5860,10 +8171,10 @@
       <c r="F13" s="55"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="78"/>
+      <c r="D14" s="79"/>
       <c r="F14" s="56" t="s">
         <v>208</v>
       </c>
@@ -5920,10 +8231,10 @@
       <c r="D19" s="61"/>
     </row>
     <row r="20" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="78" t="s">
+      <c r="C20" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="78"/>
+      <c r="D20" s="79"/>
       <c r="F20" s="56" t="s">
         <v>208</v>
       </c>
@@ -5981,1858 +8292,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I157"/>
-  <sheetViews>
-    <sheetView topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="88.42578125" style="65" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="65"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D2" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F2" s="64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="62">
-        <v>6</v>
-      </c>
-      <c r="C3" s="69">
-        <v>-82.597131869999998</v>
-      </c>
-      <c r="D3" s="69">
-        <v>177.69130519999999</v>
-      </c>
-      <c r="E3" s="69">
-        <v>0</v>
-      </c>
-      <c r="F3" s="69">
-        <v>4.7661889999999997E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="B4" s="62">
-        <v>7</v>
-      </c>
-      <c r="C4" s="69">
-        <v>-81.856145339999998</v>
-      </c>
-      <c r="D4" s="69">
-        <v>178.3789573</v>
-      </c>
-      <c r="E4" s="69">
-        <v>0.687652182</v>
-      </c>
-      <c r="F4" s="69">
-        <v>3.3794770000000001E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="62">
-        <v>7</v>
-      </c>
-      <c r="C5" s="69">
-        <v>-81.998308960000003</v>
-      </c>
-      <c r="D5" s="69">
-        <v>178.6632846</v>
-      </c>
-      <c r="E5" s="69">
-        <v>0.97197942699999995</v>
-      </c>
-      <c r="F5" s="69">
-        <v>2.9316260000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="62">
-        <v>6</v>
-      </c>
-      <c r="C6" s="69">
-        <v>-83.127967459999994</v>
-      </c>
-      <c r="D6" s="69">
-        <v>178.7529763</v>
-      </c>
-      <c r="E6" s="69">
-        <v>1.06167118</v>
-      </c>
-      <c r="F6" s="69">
-        <v>2.8030590000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="62">
-        <v>7</v>
-      </c>
-      <c r="C7" s="69">
-        <v>-82.043598540000005</v>
-      </c>
-      <c r="D7" s="69">
-        <v>178.7538638</v>
-      </c>
-      <c r="E7" s="69">
-        <v>1.0625585900000001</v>
-      </c>
-      <c r="F7" s="69">
-        <v>2.8018159999999999E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="62">
-        <v>6</v>
-      </c>
-      <c r="C8" s="69">
-        <v>-83.169346759999996</v>
-      </c>
-      <c r="D8" s="69">
-        <v>178.83573490000001</v>
-      </c>
-      <c r="E8" s="69">
-        <v>1.1444297830000001</v>
-      </c>
-      <c r="F8" s="69">
-        <v>2.6894380000000002E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="62">
-        <v>7</v>
-      </c>
-      <c r="C9" s="69">
-        <v>-82.200212390000004</v>
-      </c>
-      <c r="D9" s="69">
-        <v>179.06709140000001</v>
-      </c>
-      <c r="E9" s="69">
-        <v>1.375786274</v>
-      </c>
-      <c r="F9" s="69">
-        <v>2.3956479999999998E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="65" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="62">
-        <v>8</v>
-      </c>
-      <c r="C10" s="69">
-        <v>-81.117420989999999</v>
-      </c>
-      <c r="D10" s="69">
-        <v>179.0971174</v>
-      </c>
-      <c r="E10" s="69">
-        <v>1.4058122719999999</v>
-      </c>
-      <c r="F10" s="69">
-        <v>2.3599509999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="65" t="s">
-        <v>185</v>
-      </c>
-      <c r="B11" s="62">
-        <v>6</v>
-      </c>
-      <c r="C11" s="69">
-        <v>-83.301189399999998</v>
-      </c>
-      <c r="D11" s="69">
-        <v>179.0994202</v>
-      </c>
-      <c r="E11" s="69">
-        <v>1.4081150529999999</v>
-      </c>
-      <c r="F11" s="69">
-        <v>2.3572350000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="B12" s="62">
-        <v>7</v>
-      </c>
-      <c r="C12" s="69">
-        <v>-82.232664400000004</v>
-      </c>
-      <c r="D12" s="69">
-        <v>179.13199549999999</v>
-      </c>
-      <c r="E12" s="69">
-        <v>1.4406902930000001</v>
-      </c>
-      <c r="F12" s="69">
-        <v>2.319153E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="65" t="s">
-        <v>163</v>
-      </c>
-      <c r="B13" s="62">
-        <v>7</v>
-      </c>
-      <c r="C13" s="69">
-        <v>-82.251071330000002</v>
-      </c>
-      <c r="D13" s="69">
-        <v>179.16880929999999</v>
-      </c>
-      <c r="E13" s="69">
-        <v>1.4775041609999999</v>
-      </c>
-      <c r="F13" s="69">
-        <v>2.276854E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="62">
-        <v>7</v>
-      </c>
-      <c r="C14" s="69">
-        <v>-82.286499750000004</v>
-      </c>
-      <c r="D14" s="69">
-        <v>179.23966619999999</v>
-      </c>
-      <c r="E14" s="69">
-        <v>1.548361009</v>
-      </c>
-      <c r="F14" s="69">
-        <v>2.197601E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="65" t="s">
-        <v>169</v>
-      </c>
-      <c r="B15" s="62">
-        <v>7</v>
-      </c>
-      <c r="C15" s="69">
-        <v>-82.316323229999995</v>
-      </c>
-      <c r="D15" s="69">
-        <v>179.29931310000001</v>
-      </c>
-      <c r="E15" s="69">
-        <v>1.60800795</v>
-      </c>
-      <c r="F15" s="69">
-        <v>2.1330289999999998E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="62">
-        <v>7</v>
-      </c>
-      <c r="C16" s="69">
-        <v>-82.350724940000006</v>
-      </c>
-      <c r="D16" s="69">
-        <v>179.36811650000001</v>
-      </c>
-      <c r="E16" s="69">
-        <v>1.6768113819999999</v>
-      </c>
-      <c r="F16" s="69">
-        <v>2.0608969999999999E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="65" t="s">
-        <v>183</v>
-      </c>
-      <c r="B17" s="62">
-        <v>7</v>
-      </c>
-      <c r="C17" s="69">
-        <v>-82.352463729999997</v>
-      </c>
-      <c r="D17" s="69">
-        <v>179.37159410000001</v>
-      </c>
-      <c r="E17" s="69">
-        <v>1.680288958</v>
-      </c>
-      <c r="F17" s="69">
-        <v>2.0573169999999999E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="65" t="s">
-        <v>168</v>
-      </c>
-      <c r="B18" s="62">
-        <v>7</v>
-      </c>
-      <c r="C18" s="69">
-        <v>-82.368749339999994</v>
-      </c>
-      <c r="D18" s="69">
-        <v>179.40416529999999</v>
-      </c>
-      <c r="E18" s="69">
-        <v>1.712860182</v>
-      </c>
-      <c r="F18" s="69">
-        <v>2.0240829999999999E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="65" t="s">
-        <v>184</v>
-      </c>
-      <c r="B19" s="62">
-        <v>8</v>
-      </c>
-      <c r="C19" s="69">
-        <v>-81.313175680000001</v>
-      </c>
-      <c r="D19" s="69">
-        <v>179.48862679999999</v>
-      </c>
-      <c r="E19" s="69">
-        <v>1.7973216460000001</v>
-      </c>
-      <c r="F19" s="69">
-        <v>1.9403840000000001E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="B20" s="62">
-        <v>8</v>
-      </c>
-      <c r="C20" s="69">
-        <v>-81.390731869999996</v>
-      </c>
-      <c r="D20" s="69">
-        <v>179.6437392</v>
-      </c>
-      <c r="E20" s="69">
-        <v>1.9524340149999999</v>
-      </c>
-      <c r="F20" s="69">
-        <v>1.7955829999999999E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="B21" s="62">
-        <v>7</v>
-      </c>
-      <c r="C21" s="69">
-        <v>-82.495072640000004</v>
-      </c>
-      <c r="D21" s="69">
-        <v>179.65681190000001</v>
-      </c>
-      <c r="E21" s="69">
-        <v>1.965506776</v>
-      </c>
-      <c r="F21" s="69">
-        <v>1.783885E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="B22" s="62">
-        <v>7</v>
-      </c>
-      <c r="C22" s="69">
-        <v>-82.4993956</v>
-      </c>
-      <c r="D22" s="69">
-        <v>179.66545790000001</v>
-      </c>
-      <c r="E22" s="69">
-        <v>1.974152693</v>
-      </c>
-      <c r="F22" s="69">
-        <v>1.77619E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="F23" s="66"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
-        <v>160</v>
-      </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-    </row>
-    <row r="25" spans="1:6" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E25" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
-        <v>188</v>
-      </c>
-      <c r="B26" s="65">
-        <v>3</v>
-      </c>
-      <c r="C26" s="65">
-        <v>-75.372176580000001</v>
-      </c>
-      <c r="D26" s="65">
-        <v>156.88388810000001</v>
-      </c>
-      <c r="E26" s="65">
-        <v>0</v>
-      </c>
-      <c r="F26" s="65">
-        <v>2.1921950000000001E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="65">
-        <v>2</v>
-      </c>
-      <c r="C27" s="65">
-        <v>-76.41803032</v>
-      </c>
-      <c r="D27" s="65">
-        <v>156.90542479999999</v>
-      </c>
-      <c r="E27" s="65">
-        <v>2.1536749000000001E-2</v>
-      </c>
-      <c r="F27" s="65">
-        <v>2.1687149999999999E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
-        <v>189</v>
-      </c>
-      <c r="B28" s="65">
-        <v>4</v>
-      </c>
-      <c r="C28" s="65">
-        <v>-74.551180729999999</v>
-      </c>
-      <c r="D28" s="65">
-        <v>157.33627960000001</v>
-      </c>
-      <c r="E28" s="65">
-        <v>0.45239153799999998</v>
-      </c>
-      <c r="F28" s="65">
-        <v>1.7484110000000001E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="65" t="s">
-        <v>170</v>
-      </c>
-      <c r="B29" s="65">
-        <v>4</v>
-      </c>
-      <c r="C29" s="65">
-        <v>-74.56423581</v>
-      </c>
-      <c r="D29" s="65">
-        <v>157.36238969999999</v>
-      </c>
-      <c r="E29" s="65">
-        <v>0.47850169399999998</v>
-      </c>
-      <c r="F29" s="65">
-        <v>1.725734E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="65" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" s="65">
-        <v>4</v>
-      </c>
-      <c r="C30" s="65">
-        <v>-74.60956985</v>
-      </c>
-      <c r="D30" s="65">
-        <v>157.45305780000001</v>
-      </c>
-      <c r="E30" s="65">
-        <v>0.56916977499999999</v>
-      </c>
-      <c r="F30" s="65">
-        <v>1.649246E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
-        <v>203</v>
-      </c>
-      <c r="B31" s="65">
-        <v>4</v>
-      </c>
-      <c r="C31" s="65">
-        <v>-74.631530049999995</v>
-      </c>
-      <c r="D31" s="65">
-        <v>157.4969782</v>
-      </c>
-      <c r="E31" s="65">
-        <v>0.61309017499999996</v>
-      </c>
-      <c r="F31" s="65">
-        <v>1.6134229999999999E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
-        <v>171</v>
-      </c>
-      <c r="B32" s="65">
-        <v>3</v>
-      </c>
-      <c r="C32" s="65">
-        <v>-75.752877819999995</v>
-      </c>
-      <c r="D32" s="65">
-        <v>157.64529049999999</v>
-      </c>
-      <c r="E32" s="65">
-        <v>0.76140246300000003</v>
-      </c>
-      <c r="F32" s="65">
-        <v>1.498107E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="65">
-        <v>3</v>
-      </c>
-      <c r="C33" s="65">
-        <v>-75.835690209999996</v>
-      </c>
-      <c r="D33" s="65">
-        <v>157.8109153</v>
-      </c>
-      <c r="E33" s="65">
-        <v>0.92702725699999999</v>
-      </c>
-      <c r="F33" s="65">
-        <v>1.3790429999999999E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="B34" s="65">
-        <v>3</v>
-      </c>
-      <c r="C34" s="65">
-        <v>-75.926378889999995</v>
-      </c>
-      <c r="D34" s="65">
-        <v>157.99229270000001</v>
-      </c>
-      <c r="E34" s="65">
-        <v>1.1084046190000001</v>
-      </c>
-      <c r="F34" s="65">
-        <v>1.259483E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="65" t="s">
-        <v>204</v>
-      </c>
-      <c r="B35" s="65">
-        <v>5</v>
-      </c>
-      <c r="C35" s="65">
-        <v>-73.906418740000007</v>
-      </c>
-      <c r="D35" s="65">
-        <v>158.1657787</v>
-      </c>
-      <c r="E35" s="65">
-        <v>1.2818906139999999</v>
-      </c>
-      <c r="F35" s="65">
-        <v>1.154836E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="65">
-        <v>5</v>
-      </c>
-      <c r="C36" s="65">
-        <v>-73.908162869999998</v>
-      </c>
-      <c r="D36" s="65">
-        <v>158.1692669</v>
-      </c>
-      <c r="E36" s="65">
-        <v>1.2853788639999999</v>
-      </c>
-      <c r="F36" s="65">
-        <v>1.1528230000000001E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="65">
-        <v>4</v>
-      </c>
-      <c r="C37" s="65">
-        <v>-75.009660060000002</v>
-      </c>
-      <c r="D37" s="65">
-        <v>158.25323829999999</v>
-      </c>
-      <c r="E37" s="65">
-        <v>1.369350201</v>
-      </c>
-      <c r="F37" s="65">
-        <v>1.1054229999999999E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="65" t="s">
-        <v>174</v>
-      </c>
-      <c r="B38" s="65">
-        <v>3</v>
-      </c>
-      <c r="C38" s="65">
-        <v>-76.164375449999994</v>
-      </c>
-      <c r="D38" s="65">
-        <v>158.46828579999999</v>
-      </c>
-      <c r="E38" s="65">
-        <v>1.584397724</v>
-      </c>
-      <c r="F38" s="65">
-        <v>9.9273099999999995E-4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="65" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="65">
-        <v>4</v>
-      </c>
-      <c r="C39" s="65">
-        <v>-75.131083619999998</v>
-      </c>
-      <c r="D39" s="65">
-        <v>158.4960854</v>
-      </c>
-      <c r="E39" s="65">
-        <v>1.6121973089999999</v>
-      </c>
-      <c r="F39" s="65">
-        <v>9.7902800000000006E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="65" t="s">
-        <v>193</v>
-      </c>
-      <c r="B40" s="65">
-        <v>5</v>
-      </c>
-      <c r="C40" s="65">
-        <v>-74.077362550000004</v>
-      </c>
-      <c r="D40" s="65">
-        <v>158.50766630000001</v>
-      </c>
-      <c r="E40" s="65">
-        <v>1.6237782190000001</v>
-      </c>
-      <c r="F40" s="65">
-        <v>9.7337499999999996E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="65" t="s">
-        <v>176</v>
-      </c>
-      <c r="B41" s="65">
-        <v>5</v>
-      </c>
-      <c r="C41" s="65">
-        <v>-74.081816790000005</v>
-      </c>
-      <c r="D41" s="65">
-        <v>158.5165748</v>
-      </c>
-      <c r="E41" s="65">
-        <v>1.632686707</v>
-      </c>
-      <c r="F41" s="65">
-        <v>9.6904900000000004E-4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="65" t="s">
-        <v>177</v>
-      </c>
-      <c r="B42" s="65">
-        <v>5</v>
-      </c>
-      <c r="C42" s="65">
-        <v>-74.127009659999999</v>
-      </c>
-      <c r="D42" s="65">
-        <v>158.60696050000001</v>
-      </c>
-      <c r="E42" s="65">
-        <v>1.723072438</v>
-      </c>
-      <c r="F42" s="65">
-        <v>9.2623E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="65">
-        <v>5</v>
-      </c>
-      <c r="C43" s="65">
-        <v>-74.180559380000005</v>
-      </c>
-      <c r="D43" s="65">
-        <v>158.7140599</v>
-      </c>
-      <c r="E43" s="65">
-        <v>1.830171894</v>
-      </c>
-      <c r="F43" s="65">
-        <v>8.7793500000000004E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="B44" s="65">
-        <v>5</v>
-      </c>
-      <c r="C44" s="65">
-        <v>-74.180605790000001</v>
-      </c>
-      <c r="D44" s="65">
-        <v>158.71415279999999</v>
-      </c>
-      <c r="E44" s="65">
-        <v>1.8302647030000001</v>
-      </c>
-      <c r="F44" s="65">
-        <v>8.7789400000000005E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="B45" s="65">
-        <v>4</v>
-      </c>
-      <c r="C45" s="65">
-        <v>-75.253866849999994</v>
-      </c>
-      <c r="D45" s="65">
-        <v>158.7416518</v>
-      </c>
-      <c r="E45" s="65">
-        <v>1.857763772</v>
-      </c>
-      <c r="F45" s="65">
-        <v>8.6590600000000005E-4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="65" t="s">
-        <v>180</v>
-      </c>
-      <c r="B46" s="65">
-        <v>3</v>
-      </c>
-      <c r="C46" s="65">
-        <v>-76.303794510000003</v>
-      </c>
-      <c r="D46" s="65">
-        <v>158.74712389999999</v>
-      </c>
-      <c r="E46" s="65">
-        <v>1.863235854</v>
-      </c>
-      <c r="F46" s="65">
-        <v>8.6353999999999999E-4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="B47" s="65">
-        <v>3</v>
-      </c>
-      <c r="C47" s="65">
-        <v>-76.318116180000004</v>
-      </c>
-      <c r="D47" s="65">
-        <v>158.77576719999999</v>
-      </c>
-      <c r="E47" s="65">
-        <v>1.891879187</v>
-      </c>
-      <c r="F47" s="65">
-        <v>8.5126099999999997E-4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
-        <v>181</v>
-      </c>
-      <c r="B48" s="65">
-        <v>4</v>
-      </c>
-      <c r="C48" s="65">
-        <v>-75.275395619999998</v>
-      </c>
-      <c r="D48" s="65">
-        <v>158.7847094</v>
-      </c>
-      <c r="E48" s="65">
-        <v>1.900821321</v>
-      </c>
-      <c r="F48" s="65">
-        <v>8.4746400000000003E-4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="B49" s="65">
-        <v>4</v>
-      </c>
-      <c r="C49" s="65">
-        <v>-75.276053039999994</v>
-      </c>
-      <c r="D49" s="65">
-        <v>158.78602420000001</v>
-      </c>
-      <c r="E49" s="65">
-        <v>1.902136161</v>
-      </c>
-      <c r="F49" s="65">
-        <v>8.4690700000000004E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="B50" s="65">
-        <v>4</v>
-      </c>
-      <c r="C50" s="65">
-        <v>-75.28310037</v>
-      </c>
-      <c r="D50" s="65">
-        <v>158.8001189</v>
-      </c>
-      <c r="E50" s="65">
-        <v>1.9162308219999999</v>
-      </c>
-      <c r="F50" s="65">
-        <v>8.4095899999999996E-4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="B51" s="65">
-        <v>3</v>
-      </c>
-      <c r="C51" s="65">
-        <v>-76.342273410000004</v>
-      </c>
-      <c r="D51" s="65">
-        <v>158.82408169999999</v>
-      </c>
-      <c r="E51" s="65">
-        <v>1.940193649</v>
-      </c>
-      <c r="F51" s="65">
-        <v>8.3094400000000002E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="65">
-        <v>4</v>
-      </c>
-      <c r="C52" s="65">
-        <v>-75.313823619999994</v>
-      </c>
-      <c r="D52" s="65">
-        <v>158.86156539999999</v>
-      </c>
-      <c r="E52" s="65">
-        <v>1.977677326</v>
-      </c>
-      <c r="F52" s="65">
-        <v>8.1551499999999995E-4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="65" t="s">
-        <v>205</v>
-      </c>
-      <c r="B53" s="65">
-        <v>5</v>
-      </c>
-      <c r="C53" s="65">
-        <v>-74.254377680000005</v>
-      </c>
-      <c r="D53" s="65">
-        <v>158.86169649999999</v>
-      </c>
-      <c r="E53" s="65">
-        <v>1.9778084840000001</v>
-      </c>
-      <c r="F53" s="65">
-        <v>8.1546199999999998E-4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="B54" s="65">
-        <v>4</v>
-      </c>
-      <c r="C54" s="65">
-        <v>-75.315459820000001</v>
-      </c>
-      <c r="D54" s="65">
-        <v>158.8648378</v>
-      </c>
-      <c r="E54" s="65">
-        <v>1.9809497140000001</v>
-      </c>
-      <c r="F54" s="65">
-        <v>8.1418199999999999E-4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="F55" s="66"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-    </row>
-    <row r="57" spans="1:6" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B57" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" s="65"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="65"/>
-      <c r="E58" s="65"/>
-      <c r="F58" s="65"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="65"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="65"/>
-      <c r="E59" s="65"/>
-      <c r="F59" s="65"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B60" s="65"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" s="65"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="65"/>
-      <c r="F62" s="65"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B64" s="65"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="65"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B65" s="65"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="65"/>
-      <c r="E65" s="65"/>
-      <c r="F65" s="65"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B66" s="65"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="65"/>
-      <c r="F66" s="65"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B67" s="65"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="65"/>
-      <c r="E67" s="65"/>
-      <c r="F67" s="65"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B68" s="65"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B69" s="65"/>
-      <c r="C69" s="65"/>
-      <c r="D69" s="65"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="65"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B70" s="65"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="65"/>
-      <c r="F70" s="65"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B71" s="65"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="65"/>
-      <c r="F71" s="65"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B72" s="65"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="65"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B73" s="65"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="65"/>
-      <c r="E73" s="65"/>
-      <c r="F73" s="65"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B74" s="65"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="65"/>
-      <c r="F74" s="65"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B75" s="65"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="65"/>
-      <c r="E75" s="65"/>
-      <c r="F75" s="65"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B76" s="65"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="65"/>
-      <c r="E76" s="65"/>
-      <c r="F76" s="65"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B77" s="65"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B79" s="65"/>
-      <c r="C79" s="65"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="65"/>
-      <c r="F79" s="65"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B80" s="65"/>
-      <c r="C80" s="65"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="65"/>
-      <c r="F80" s="65"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B81" s="65"/>
-      <c r="C81" s="65"/>
-      <c r="D81" s="65"/>
-      <c r="E81" s="65"/>
-      <c r="F81" s="65"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B82" s="65"/>
-      <c r="C82" s="65"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="65"/>
-      <c r="F82" s="65"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="65"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="65"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="65"/>
-      <c r="C85" s="65"/>
-      <c r="D85" s="65"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="F86" s="66"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="68"/>
-    </row>
-    <row r="88" spans="1:6" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B88" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C88" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D88" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E88" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F88" s="64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="71"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="65"/>
-      <c r="E89" s="65"/>
-      <c r="F89" s="65"/>
-    </row>
-    <row r="90" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="71"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="65"/>
-      <c r="F90" s="65"/>
-    </row>
-    <row r="91" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="71"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="65"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-    </row>
-    <row r="92" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="71"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-    </row>
-    <row r="93" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="71"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="65"/>
-      <c r="E93" s="65"/>
-      <c r="F93" s="65"/>
-    </row>
-    <row r="94" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="71"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-    </row>
-    <row r="95" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="71"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="65"/>
-      <c r="E95" s="65"/>
-      <c r="F95" s="65"/>
-    </row>
-    <row r="96" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="71"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="65"/>
-      <c r="F96" s="65"/>
-    </row>
-    <row r="97" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="71"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="65"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65"/>
-    </row>
-    <row r="98" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="71"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="65"/>
-      <c r="E98" s="65"/>
-      <c r="F98" s="65"/>
-    </row>
-    <row r="99" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="71"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65"/>
-    </row>
-    <row r="100" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="71"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-    </row>
-    <row r="101" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="71"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65"/>
-      <c r="D101" s="65"/>
-      <c r="E101" s="65"/>
-      <c r="F101" s="65"/>
-    </row>
-    <row r="102" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="71"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="65"/>
-    </row>
-    <row r="103" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="71"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="65"/>
-      <c r="D103" s="65"/>
-      <c r="E103" s="65"/>
-      <c r="F103" s="65"/>
-    </row>
-    <row r="104" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="71"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="65"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="65"/>
-      <c r="F104" s="65"/>
-    </row>
-    <row r="105" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="71"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="65"/>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="65"/>
-    </row>
-    <row r="106" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="71"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-    </row>
-    <row r="107" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="71"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
-      <c r="D107" s="65"/>
-      <c r="E107" s="65"/>
-      <c r="F107" s="65"/>
-    </row>
-    <row r="108" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="71"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="65"/>
-    </row>
-    <row r="109" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="71"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="65"/>
-    </row>
-    <row r="110" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="71"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="65"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="65"/>
-      <c r="F110" s="65"/>
-    </row>
-    <row r="111" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="71"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="65"/>
-      <c r="D111" s="65"/>
-      <c r="E111" s="65"/>
-      <c r="F111" s="65"/>
-    </row>
-    <row r="112" spans="1:6" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="71"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="65"/>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="65"/>
-    </row>
-    <row r="113" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="71"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="65"/>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
-      <c r="F113" s="65"/>
-    </row>
-    <row r="114" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="71"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="65"/>
-      <c r="D114" s="65"/>
-      <c r="E114" s="65"/>
-      <c r="F114" s="65"/>
-    </row>
-    <row r="115" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="71"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="65"/>
-      <c r="D115" s="65"/>
-      <c r="E115" s="65"/>
-      <c r="F115" s="65"/>
-    </row>
-    <row r="116" spans="1:9" s="72" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="71"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="65"/>
-      <c r="D116" s="65"/>
-      <c r="E116" s="65"/>
-      <c r="F116" s="65"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B117" s="65"/>
-      <c r="C117" s="65"/>
-      <c r="D117" s="65"/>
-      <c r="E117" s="65"/>
-      <c r="F117" s="65"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B118" s="65"/>
-      <c r="C118" s="65"/>
-      <c r="D118" s="65"/>
-      <c r="E118" s="65"/>
-      <c r="F118" s="65"/>
-    </row>
-    <row r="119" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="H119" s="72"/>
-      <c r="I119" s="72"/>
-    </row>
-    <row r="120" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="B120" s="68"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-    </row>
-    <row r="121" spans="1:9" s="72" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="B121" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="C121" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="D121" s="64" t="s">
-        <v>154</v>
-      </c>
-      <c r="E121" s="64" t="s">
-        <v>155</v>
-      </c>
-      <c r="F121" s="64" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B122" s="65"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="65"/>
-      <c r="E122" s="65"/>
-      <c r="F122" s="65"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B123" s="65"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="65"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B124" s="65"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="65"/>
-      <c r="E124" s="65"/>
-      <c r="F124" s="65"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B125" s="65"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="65"/>
-      <c r="E125" s="65"/>
-      <c r="F125" s="65"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B126" s="65"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="65"/>
-      <c r="E126" s="65"/>
-      <c r="F126" s="65"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B127" s="65"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B128" s="65"/>
-      <c r="C128" s="65"/>
-      <c r="D128" s="65"/>
-      <c r="E128" s="65"/>
-      <c r="F128" s="65"/>
-    </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B129" s="65"/>
-      <c r="C129" s="65"/>
-      <c r="D129" s="65"/>
-      <c r="E129" s="65"/>
-      <c r="F129" s="65"/>
-    </row>
-    <row r="130" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B130" s="65"/>
-      <c r="C130" s="65"/>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="65"/>
-    </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B131" s="65"/>
-      <c r="C131" s="65"/>
-      <c r="D131" s="65"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-    </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B132" s="65"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="65"/>
-      <c r="E132" s="65"/>
-      <c r="F132" s="65"/>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B133" s="65"/>
-      <c r="C133" s="65"/>
-      <c r="D133" s="65"/>
-      <c r="E133" s="65"/>
-      <c r="F133" s="65"/>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B134" s="65"/>
-      <c r="C134" s="65"/>
-      <c r="D134" s="65"/>
-      <c r="E134" s="65"/>
-      <c r="F134" s="65"/>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B135" s="65"/>
-      <c r="C135" s="65"/>
-      <c r="D135" s="65"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B136" s="65"/>
-      <c r="C136" s="65"/>
-      <c r="D136" s="65"/>
-      <c r="E136" s="65"/>
-      <c r="F136" s="65"/>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B137" s="65"/>
-      <c r="C137" s="65"/>
-      <c r="D137" s="65"/>
-      <c r="E137" s="65"/>
-      <c r="F137" s="65"/>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B138" s="65"/>
-      <c r="C138" s="65"/>
-      <c r="D138" s="65"/>
-      <c r="E138" s="65"/>
-      <c r="F138" s="65"/>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B139" s="65"/>
-      <c r="C139" s="65"/>
-      <c r="D139" s="65"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B140" s="65"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="65"/>
-      <c r="E140" s="65"/>
-      <c r="F140" s="65"/>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B141" s="65"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="65"/>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B142" s="65"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="65"/>
-      <c r="E142" s="65"/>
-      <c r="F142" s="65"/>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B143" s="65"/>
-      <c r="C143" s="65"/>
-      <c r="D143" s="65"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="65"/>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B144" s="65"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="65"/>
-      <c r="E144" s="65"/>
-      <c r="F144" s="65"/>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B145" s="65"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="65"/>
-      <c r="E145" s="65"/>
-      <c r="F145" s="65"/>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B146" s="65"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="65"/>
-      <c r="E146" s="65"/>
-      <c r="F146" s="65"/>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B147" s="65"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="65"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B148" s="65"/>
-      <c r="C148" s="65"/>
-      <c r="D148" s="65"/>
-      <c r="E148" s="65"/>
-      <c r="F148" s="65"/>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B149" s="65"/>
-      <c r="C149" s="65"/>
-      <c r="D149" s="65"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="65"/>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B150" s="65"/>
-      <c r="C150" s="65"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="65"/>
-      <c r="F150" s="65"/>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B151" s="65"/>
-      <c r="C151" s="65"/>
-      <c r="D151" s="65"/>
-      <c r="E151" s="65"/>
-      <c r="F151" s="65"/>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B152" s="65"/>
-      <c r="C152" s="65"/>
-      <c r="D152" s="65"/>
-      <c r="E152" s="65"/>
-      <c r="F152" s="65"/>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B153" s="65"/>
-      <c r="C153" s="65"/>
-      <c r="D153" s="65"/>
-      <c r="E153" s="65"/>
-      <c r="F153" s="65"/>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B154" s="65"/>
-      <c r="C154" s="65"/>
-      <c r="D154" s="65"/>
-      <c r="E154" s="65"/>
-      <c r="F154" s="65"/>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B155" s="65"/>
-      <c r="C155" s="65"/>
-      <c r="D155" s="65"/>
-      <c r="E155" s="65"/>
-      <c r="F155" s="65"/>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B156" s="65"/>
-      <c r="C156" s="65"/>
-      <c r="D156" s="65"/>
-      <c r="E156" s="65"/>
-      <c r="F156" s="65"/>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B157" s="65"/>
-      <c r="C157" s="65"/>
-      <c r="D157" s="65"/>
-      <c r="E157" s="65"/>
-      <c r="F157" s="65"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>